--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3926.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3926.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.476572410910215</v>
+        <v>0.8346506357192993</v>
       </c>
       <c r="B1">
-        <v>2.375983587781135</v>
+        <v>0.8278881311416626</v>
       </c>
       <c r="C1">
-        <v>6.183055763114594</v>
+        <v>1.354677319526672</v>
       </c>
       <c r="D1">
-        <v>4.022391001660574</v>
+        <v>2.390108585357666</v>
       </c>
       <c r="E1">
-        <v>1.06588736684209</v>
+        <v>1.771325707435608</v>
       </c>
     </row>
   </sheetData>
